--- a/Data cleaning & transformation/Finalapi_definition.xlsx
+++ b/Data cleaning & transformation/Finalapi_definition.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6498185E-E17F-874B-BD1B-A3626542675B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07241BE3-4D06-F743-A03C-2FF44E52E21D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="definition" sheetId="1" r:id="rId1"/>
-    <sheet name="product" sheetId="3" r:id="rId2"/>
+    <sheet name="Dataset field definition" sheetId="1" r:id="rId1"/>
+    <sheet name="product information" sheetId="3" r:id="rId2"/>
     <sheet name="Columns to be retained" sheetId="7" r:id="rId3"/>
-    <sheet name="states &amp; year" sheetId="4" r:id="rId4"/>
-    <sheet name="State List" sheetId="5" r:id="rId5"/>
-    <sheet name="Population detail file format" sheetId="6" r:id="rId6"/>
+    <sheet name="Agency Performance Cal" sheetId="10" r:id="rId4"/>
+    <sheet name="states &amp; year" sheetId="4" r:id="rId5"/>
+    <sheet name="State List" sheetId="5" r:id="rId6"/>
+    <sheet name="Population detail file format" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="455">
   <si>
     <t xml:space="preserve"> AGENCY_ID </t>
   </si>
@@ -932,9 +933,6 @@
   </si>
   <si>
     <t>AP</t>
-  </si>
-  <si>
-    <t>Years</t>
   </si>
   <si>
     <t>CT/ST</t>
@@ -1255,26 +1253,170 @@
     <t>AVG_AGE</t>
   </si>
   <si>
-    <t>Commission_Ind</t>
-  </si>
-  <si>
     <t>Insurable Population</t>
   </si>
   <si>
     <t>computed field</t>
   </si>
   <si>
-    <t>Computed field</t>
-  </si>
-  <si>
     <t>Merged field</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Only 1 row</t>
+  </si>
+  <si>
+    <t>12000 row ; we can replace it with 0 since there is no data for previous year</t>
+  </si>
+  <si>
+    <t>38k row with value 99999 ; we can either drop or create a new df ignoring the values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Column </t>
+  </si>
+  <si>
+    <t>Data Cleaning?</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>States covered in the Dataset</t>
+  </si>
+  <si>
+    <t>Years covered in the Dataset</t>
+  </si>
+  <si>
+    <t>From Year</t>
+  </si>
+  <si>
+    <t>To Year</t>
+  </si>
+  <si>
+    <t>Year : 2017</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/moneystore/agencyperformance/version/1</t>
+  </si>
+  <si>
+    <t>Columns that will be retained after cleaning and transformation</t>
+  </si>
+  <si>
+    <t>Agency Performance is calculated as follows</t>
+  </si>
+  <si>
+    <t>The data is orgainzed as follows:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PRIMARY_AGENCY_ID is the master Agency Id.  They offer CL/PL products and also co-opt other Agency_id</t>
+  </si>
+  <si>
+    <t>Each Primary_Agency has one or more Insurance product that belong to either Commercial Line (CL) or Personal Line (PL) and</t>
+  </si>
+  <si>
+    <t>they offer the products in one or more of the six states (IN, KY, MI, OH, PA, WV) for the years potentially from 2005 to 2015.</t>
+  </si>
+  <si>
+    <t>The New Business Premium (NB_WRTN_PREM_AMT), Written Policy Amt (WRTN_PREM_AMT) and Product losses (PRD_INCRD_LOSSES_AMT) are for each year, each product, each state, eacy Agency and each Primary Agency</t>
+  </si>
+  <si>
+    <t>We want to define the Agency performance as the total underwritten amount at the end of 2015 after all claims and losses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 2 :  </t>
+  </si>
+  <si>
+    <t>Normalize using  LOSS_RATIO_3YR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For each Product, each state, each year, consider  UNDERWRITING PROFIT = WRTN_PREM_AMT    </t>
+  </si>
+  <si>
+    <t>For every year, calculate the underwriting profit by (1 -   LOSS_RATIO_3YR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 3 :  </t>
+  </si>
+  <si>
+    <t>Aggregate at the product level for each state and for each agency, primary agency id</t>
+  </si>
+  <si>
+    <t>drop this column</t>
+  </si>
+  <si>
+    <t>35406 rows can be replaced by median or  mean value?</t>
+  </si>
+  <si>
+    <t>Remove rows , where active producer is 99999</t>
+  </si>
+  <si>
+    <t>Remove rows , where Max_AGE is 99999</t>
+  </si>
+  <si>
+    <t>Remove rows , where Min_AGE is 99999</t>
+  </si>
+  <si>
+    <t>Drop this column</t>
+  </si>
+  <si>
+    <t>Important column. (Commissions Indicator)</t>
+  </si>
+  <si>
+    <t>Compute = (Max_Age - Min_Age) / Active producer</t>
+  </si>
+  <si>
+    <t>coming from Census data</t>
+  </si>
+  <si>
+    <t>Agency_Performance</t>
+  </si>
+  <si>
+    <t>Computed field based on the "Agency Performance Cal' tab</t>
+  </si>
+  <si>
+    <t>Demography</t>
+  </si>
+  <si>
+    <t>Computed field based on average age</t>
+  </si>
+  <si>
+    <t>The Depression Era</t>
+  </si>
+  <si>
+    <t>World War II</t>
+  </si>
+  <si>
+    <t>Generation X</t>
+  </si>
+  <si>
+    <t>Generation Z</t>
+  </si>
+  <si>
+    <t>Age in 2019</t>
+  </si>
+  <si>
+    <t>Post-War Cohart</t>
+  </si>
+  <si>
+    <t>Boomers I (The Baby Boomers)</t>
+  </si>
+  <si>
+    <t>Boomers II (Generation Jones)</t>
+  </si>
+  <si>
+    <t>Generation Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1342,8 +1484,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1374,8 +1530,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1413,13 +1575,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1456,15 +1629,46 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1747,10 +1951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView zoomScale="113" zoomScaleNormal="168" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A18" zoomScale="113" zoomScaleNormal="168" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1759,399 +1963,407 @@
     <col min="2" max="2" width="78.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" thickBot="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" s="18" customFormat="1" ht="16" thickBot="1">
+      <c r="A1" s="28" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16" thickBot="1">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16" thickBot="1">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16" thickBot="1">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" thickBot="1">
       <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="6" spans="1:2" ht="16" thickBot="1">
       <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2" ht="16" thickBot="1">
       <c r="A7" s="2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>93</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16" thickBot="1">
       <c r="A8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16" thickBot="1">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16" thickBot="1">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16" thickBot="1">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16" thickBot="1">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16" thickBot="1">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16" thickBot="1">
       <c r="A14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16" thickBot="1">
+      <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="29" thickBot="1">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:2" ht="29" thickBot="1">
+      <c r="A16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="43" thickBot="1">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:2" ht="43" thickBot="1">
+      <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="57" thickBot="1">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:2" ht="57" thickBot="1">
+      <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="85" thickBot="1">
-      <c r="A18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="85" thickBot="1">
       <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="85" thickBot="1">
+      <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16" thickBot="1">
-      <c r="A20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16" thickBot="1">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16" thickBot="1">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16" thickBot="1">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>66</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16" thickBot="1">
       <c r="A24" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="16" thickBot="1">
       <c r="A25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16" thickBot="1">
+      <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="16" thickBot="1">
-      <c r="A26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="16" thickBot="1">
       <c r="A27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16" thickBot="1">
+      <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16" thickBot="1">
-      <c r="A28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="16" thickBot="1">
       <c r="A29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16" thickBot="1">
+      <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="16" thickBot="1">
-      <c r="A30" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="16" thickBot="1">
       <c r="A31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="16" thickBot="1">
+      <c r="A32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="16" thickBot="1">
-      <c r="A32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="16" thickBot="1">
       <c r="A33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="16" thickBot="1">
+      <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="29" thickBot="1">
-      <c r="A34" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="29" thickBot="1">
       <c r="A35" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="29" thickBot="1">
       <c r="A36" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="29" thickBot="1">
       <c r="A37" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="29" thickBot="1">
       <c r="A38" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="29" thickBot="1">
       <c r="A39" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="29" thickBot="1">
+      <c r="A40" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B40" s="4" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="16" thickBot="1">
-      <c r="A40" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="16" thickBot="1">
       <c r="A41" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="16" thickBot="1">
       <c r="A42" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="16" thickBot="1">
       <c r="A43" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="16" thickBot="1">
       <c r="A44" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="16" thickBot="1">
       <c r="A45" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="16" thickBot="1">
       <c r="A46" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="16" thickBot="1">
       <c r="A47" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="16" thickBot="1">
       <c r="A48" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="16" thickBot="1">
       <c r="A49" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="16" thickBot="1">
+      <c r="A50" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B50" s="3" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{F6725BE5-55A8-3149-9920-2C5FFF95D686}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2506,374 +2718,375 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9C0DD2-DDAC-EB4E-BD81-518E3B09A8E3}">
-  <dimension ref="D6:E31"/>
+  <dimension ref="B2:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="21.33203125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="24" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:4">
-      <c r="D6" s="19" t="s">
+    <row r="2" spans="2:4">
+      <c r="B2" s="13" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="19" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="7" spans="4:4">
-      <c r="D7" s="19" t="s">
+      <c r="C6" s="19" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="19" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="8" spans="4:4">
-      <c r="D8" s="19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="4:4">
-      <c r="D9" s="19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="4:4">
-      <c r="D10" s="19" t="s">
+      <c r="C9" s="19" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="19" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="11" spans="4:4">
-      <c r="D11" s="19" t="s">
+      <c r="C10" s="19" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="19" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="12" spans="4:4">
-      <c r="D12" s="19" t="s">
+      <c r="C11" s="19" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="19" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="13" spans="4:4">
-      <c r="D13" s="19" t="s">
+      <c r="C12" s="19" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="19" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="14" spans="4:4">
-      <c r="D14" s="19" t="s">
+      <c r="C13" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="D13" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="19" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="15" spans="4:4">
-      <c r="D15" s="19" t="s">
+      <c r="C14" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="D14" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="19" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="16" spans="4:4">
-      <c r="D16" s="19" t="s">
+      <c r="C15" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="D15" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="19" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="17" spans="4:5">
-      <c r="D17" s="19" t="s">
+      <c r="C16" s="19" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="19" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="18" spans="4:5">
-      <c r="D18" s="19" t="s">
+      <c r="C17" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="D17" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="19" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="19" spans="4:5">
-      <c r="D19" s="19" t="s">
+      <c r="C18" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="19" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="20" spans="4:5">
-      <c r="D20" s="19" t="s">
+      <c r="C19" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="19" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="21" spans="4:5">
-      <c r="D21" s="19" t="s">
+      <c r="C20" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="D20" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="19" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="22" spans="4:5">
-      <c r="D22" s="19" t="s">
+      <c r="C21" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="D21" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="19" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="23" spans="4:5">
-      <c r="D23" s="19" t="s">
+      <c r="C22" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="D22" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="19" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="24" spans="4:5">
-      <c r="D24" s="19" t="s">
+      <c r="C23" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="D23" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="19" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="25" spans="4:5">
-      <c r="D25" s="19" t="s">
+      <c r="C24" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="D24" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="19" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="26" spans="4:5">
-      <c r="D26" s="19" t="s">
+      <c r="C25" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="D25" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="19" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="27" spans="4:5">
-      <c r="D27" s="19" t="s">
+      <c r="C26" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="D26" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="19" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="28" spans="4:5">
-      <c r="D28" s="19" t="s">
+      <c r="C27" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="D27" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="19" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="29" spans="4:5">
-      <c r="D29" s="19" t="s">
+      <c r="C28" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="D28" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" s="18" customFormat="1">
+      <c r="B29" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="19" t="s">
         <v>402</v>
       </c>
-      <c r="E29" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="30" spans="4:5">
-      <c r="D30" s="19" t="s">
-        <v>403</v>
-      </c>
-      <c r="E30" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="31" spans="4:5">
-      <c r="D31" s="19" t="s">
+      <c r="C30" s="19" t="s">
         <v>404</v>
       </c>
-      <c r="E31" t="s">
-        <v>407</v>
+      <c r="D30" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="29" t="s">
+        <v>442</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>443</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C003BE67-D55D-454D-9730-7CB85F21B9C9}">
-  <dimension ref="B2:M26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{959935B5-E565-EB4E-ACE1-CDAF700B1BBA}">
+  <dimension ref="B3:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J22" sqref="J21:J22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="12" max="12" width="12.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="31">
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="2:13">
-      <c r="F3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13">
-      <c r="C4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F4">
-        <v>2005</v>
-      </c>
-      <c r="G4">
-        <v>2015</v>
-      </c>
-      <c r="K4" s="14"/>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="C5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="C6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13">
-      <c r="C7" t="s">
-        <v>172</v>
-      </c>
-      <c r="D7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="C8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D8" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="C9" t="s">
-        <v>174</v>
-      </c>
-      <c r="D9" t="s">
-        <v>266</v>
-      </c>
-      <c r="J9">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="J11" t="s">
-        <v>301</v>
-      </c>
-      <c r="K11" t="s">
-        <v>302</v>
-      </c>
-      <c r="L11" t="s">
-        <v>303</v>
-      </c>
-      <c r="M11" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="J12" t="s">
-        <v>305</v>
-      </c>
-      <c r="K12" s="16">
-        <v>325719178</v>
-      </c>
-      <c r="L12" s="17">
-        <v>3536342.7</v>
-      </c>
-      <c r="M12" s="20">
-        <f>K12/L12</f>
-        <v>92.106225451509545</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="J13" t="s">
-        <v>173</v>
-      </c>
-      <c r="K13" s="16">
-        <v>12805537</v>
-      </c>
-      <c r="L13" s="17">
-        <v>44742.1</v>
-      </c>
-      <c r="M13" s="20">
-        <f>K13/L13</f>
-        <v>286.20777746239003</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="J14" t="s">
-        <v>174</v>
-      </c>
-      <c r="K14" s="16">
-        <v>1815857</v>
-      </c>
-      <c r="L14" s="17">
-        <v>24040.9</v>
-      </c>
-      <c r="M14" s="20">
-        <f>K14/L14</f>
-        <v>75.531989235011991</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13">
-      <c r="J15" t="s">
-        <v>170</v>
-      </c>
-      <c r="K15" s="16">
-        <v>4454189</v>
-      </c>
-      <c r="L15" s="17">
-        <v>39485.199999999997</v>
-      </c>
-      <c r="M15" s="20">
-        <f>K15/L15</f>
-        <v>112.80654523720281</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="31">
-      <c r="B16" s="15"/>
-      <c r="J16" t="s">
-        <v>171</v>
-      </c>
-      <c r="K16" s="16">
-        <v>9962311</v>
-      </c>
-      <c r="L16" s="17">
-        <v>56559.4</v>
-      </c>
-      <c r="M16" s="20">
-        <f t="shared" ref="M16:M18" si="0">K16/L16</f>
-        <v>176.13890882859437</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13">
-      <c r="J17" t="s">
-        <v>172</v>
-      </c>
-      <c r="K17" s="16">
-        <v>11658609</v>
-      </c>
-      <c r="L17" s="17">
-        <v>40862.5</v>
-      </c>
-      <c r="M17" s="20">
-        <f t="shared" si="0"/>
-        <v>285.31315998776387</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13">
-      <c r="B18" s="14"/>
-      <c r="J18" t="s">
-        <v>169</v>
-      </c>
-      <c r="K18" s="16">
-        <v>6666818</v>
-      </c>
-      <c r="L18" s="17">
-        <v>35825.599999999999</v>
-      </c>
-      <c r="M18" s="20">
-        <f t="shared" si="0"/>
-        <v>186.09089589567239</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" ht="31">
-      <c r="B20" t="s">
-        <v>380</v>
-      </c>
-      <c r="C20" s="15"/>
-    </row>
-    <row r="22" spans="2:13">
-      <c r="B22" s="13" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13">
-      <c r="C26" s="13"/>
+    <row r="3" spans="2:5">
+      <c r="B3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" s="18" customFormat="1">
+      <c r="B9" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" s="18" customFormat="1"/>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="D13" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="D15" t="s">
+        <v>426</v>
+      </c>
+      <c r="E15" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5">
+      <c r="D17" t="s">
+        <v>427</v>
+      </c>
+      <c r="E17" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="E18" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="D20" t="s">
+        <v>431</v>
+      </c>
+      <c r="E20" t="s">
+        <v>432</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2881,6 +3094,362 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C003BE67-D55D-454D-9730-7CB85F21B9C9}">
+  <dimension ref="B2:M24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="7" max="7" width="5" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" ht="31">
+      <c r="B2" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="I2" s="15"/>
+      <c r="M2" s="31"/>
+    </row>
+    <row r="3" spans="2:13" ht="16">
+      <c r="E3" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="M3" s="32"/>
+    </row>
+    <row r="4" spans="2:13" ht="23">
+      <c r="B4" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4" s="23">
+        <v>2005</v>
+      </c>
+      <c r="F4" s="23">
+        <v>2015</v>
+      </c>
+      <c r="M4" s="31"/>
+    </row>
+    <row r="5" spans="2:13" ht="16">
+      <c r="B5" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="M5" s="32"/>
+    </row>
+    <row r="6" spans="2:13" ht="23">
+      <c r="B6" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="I6" s="25">
+        <v>325719178</v>
+      </c>
+      <c r="J6" s="26">
+        <v>3536342.7</v>
+      </c>
+      <c r="K6" s="27">
+        <f>I6/J6</f>
+        <v>92.106225451509545</v>
+      </c>
+      <c r="M6" s="31"/>
+    </row>
+    <row r="7" spans="2:13" ht="16">
+      <c r="B7" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="I7" s="25">
+        <v>12805537</v>
+      </c>
+      <c r="J7" s="26">
+        <v>44742.1</v>
+      </c>
+      <c r="K7" s="27">
+        <f>I7/J7</f>
+        <v>286.20777746239003</v>
+      </c>
+      <c r="M7" s="32"/>
+    </row>
+    <row r="8" spans="2:13" ht="23">
+      <c r="B8" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="I8" s="25">
+        <v>1815857</v>
+      </c>
+      <c r="J8" s="26">
+        <v>24040.9</v>
+      </c>
+      <c r="K8" s="27">
+        <f>I8/J8</f>
+        <v>75.531989235011991</v>
+      </c>
+      <c r="M8" s="31"/>
+    </row>
+    <row r="9" spans="2:13" ht="16">
+      <c r="B9" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="I9" s="25">
+        <v>4454189</v>
+      </c>
+      <c r="J9" s="26">
+        <v>39485.199999999997</v>
+      </c>
+      <c r="K9" s="27">
+        <f>I9/J9</f>
+        <v>112.80654523720281</v>
+      </c>
+      <c r="M9" s="32"/>
+    </row>
+    <row r="10" spans="2:13" ht="16">
+      <c r="H10" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="I10" s="25">
+        <v>9962311</v>
+      </c>
+      <c r="J10" s="26">
+        <v>56559.4</v>
+      </c>
+      <c r="K10" s="27">
+        <f t="shared" ref="K10:K12" si="0">I10/J10</f>
+        <v>176.13890882859437</v>
+      </c>
+      <c r="M10" s="32"/>
+    </row>
+    <row r="11" spans="2:13" ht="23">
+      <c r="H11" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="I11" s="25">
+        <v>11658609</v>
+      </c>
+      <c r="J11" s="26">
+        <v>40862.5</v>
+      </c>
+      <c r="K11" s="27">
+        <f t="shared" si="0"/>
+        <v>285.31315998776387</v>
+      </c>
+      <c r="M11" s="31"/>
+    </row>
+    <row r="12" spans="2:13" ht="16">
+      <c r="H12" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="I12" s="25">
+        <v>6666818</v>
+      </c>
+      <c r="J12" s="26">
+        <v>35825.599999999999</v>
+      </c>
+      <c r="K12" s="27">
+        <f t="shared" si="0"/>
+        <v>186.09089589567239</v>
+      </c>
+      <c r="M12" s="32"/>
+    </row>
+    <row r="13" spans="2:13" ht="16">
+      <c r="M13" s="32"/>
+    </row>
+    <row r="14" spans="2:13" ht="23">
+      <c r="M14" s="31"/>
+    </row>
+    <row r="15" spans="2:13" ht="23">
+      <c r="M15" s="31"/>
+    </row>
+    <row r="16" spans="2:13" ht="16">
+      <c r="B16" s="14"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="K16" s="35"/>
+      <c r="M16" s="32"/>
+    </row>
+    <row r="17" spans="2:13" ht="16">
+      <c r="H17" s="34" t="s">
+        <v>446</v>
+      </c>
+      <c r="I17" s="34"/>
+      <c r="J17" s="24">
+        <v>98</v>
+      </c>
+      <c r="K17" s="24">
+        <v>107</v>
+      </c>
+      <c r="M17" s="32"/>
+    </row>
+    <row r="18" spans="2:13" ht="20" customHeight="1">
+      <c r="B18" t="s">
+        <v>379</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="H18" s="34" t="s">
+        <v>447</v>
+      </c>
+      <c r="I18" s="34"/>
+      <c r="J18" s="24">
+        <v>92</v>
+      </c>
+      <c r="K18" s="24">
+        <v>97</v>
+      </c>
+      <c r="M18" s="31"/>
+    </row>
+    <row r="19" spans="2:13" ht="16">
+      <c r="H19" s="34" t="s">
+        <v>451</v>
+      </c>
+      <c r="I19" s="34"/>
+      <c r="J19" s="24">
+        <v>74</v>
+      </c>
+      <c r="K19" s="24">
+        <v>91</v>
+      </c>
+      <c r="M19" s="33"/>
+    </row>
+    <row r="20" spans="2:13" ht="16">
+      <c r="B20" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>452</v>
+      </c>
+      <c r="I20" s="34"/>
+      <c r="J20" s="24">
+        <v>65</v>
+      </c>
+      <c r="K20" s="24">
+        <v>73</v>
+      </c>
+      <c r="M20" s="33"/>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="H21" s="34" t="s">
+        <v>453</v>
+      </c>
+      <c r="I21" s="34"/>
+      <c r="J21" s="24">
+        <v>54</v>
+      </c>
+      <c r="K21" s="24">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="H22" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="I22" s="34"/>
+      <c r="J22" s="24">
+        <v>43</v>
+      </c>
+      <c r="K22" s="24">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="H23" s="34" t="s">
+        <v>454</v>
+      </c>
+      <c r="I23" s="34"/>
+      <c r="J23" s="24">
+        <v>25</v>
+      </c>
+      <c r="K23" s="24">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="C24" s="13"/>
+      <c r="H24" s="34" t="s">
+        <v>449</v>
+      </c>
+      <c r="I24" s="34"/>
+      <c r="J24" s="24">
+        <v>15</v>
+      </c>
+      <c r="K24" s="24">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5F78CE-AF6C-AD43-887A-8BDD79875411}">
   <dimension ref="B3:C70"/>
   <sheetViews>
@@ -2888,7 +3457,7 @@
       <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
@@ -3501,61 +4070,61 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7ABE42-2322-8D46-880A-AEDB78FC5A2C}">
   <dimension ref="B2:E85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="66.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="24">
-      <c r="B2" s="18" t="s">
-        <v>306</v>
+      <c r="B2" s="16" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="E9" s="13" t="s">
         <v>313</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C10" s="22">
         <v>1</v>
@@ -3564,12 +4133,12 @@
         <v>4</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -3577,7 +4146,7 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C12" s="22">
         <v>5</v>
@@ -3586,12 +4155,12 @@
         <v>2</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
@@ -3599,7 +4168,7 @@
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C14" s="22">
         <v>7</v>
@@ -3608,12 +4177,12 @@
         <v>2</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
@@ -3621,7 +4190,7 @@
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C16" s="22">
         <v>9</v>
@@ -3630,12 +4199,12 @@
         <v>3</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
@@ -3643,7 +4212,7 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C18" s="22">
         <v>12</v>
@@ -3652,12 +4221,12 @@
         <v>2</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
@@ -3665,7 +4234,7 @@
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
@@ -3673,7 +4242,7 @@
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -3681,7 +4250,7 @@
     </row>
     <row r="22" spans="2:5">
       <c r="B22" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
@@ -3689,7 +4258,7 @@
     </row>
     <row r="23" spans="2:5">
       <c r="B23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
@@ -3697,7 +4266,7 @@
     </row>
     <row r="24" spans="2:5">
       <c r="B24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
@@ -3705,7 +4274,7 @@
     </row>
     <row r="25" spans="2:5">
       <c r="B25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
@@ -3713,7 +4282,7 @@
     </row>
     <row r="26" spans="2:5">
       <c r="B26" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
@@ -3721,7 +4290,7 @@
     </row>
     <row r="27" spans="2:5">
       <c r="B27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -3729,7 +4298,7 @@
     </row>
     <row r="28" spans="2:5">
       <c r="B28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
@@ -3737,7 +4306,7 @@
     </row>
     <row r="29" spans="2:5">
       <c r="B29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
@@ -3745,7 +4314,7 @@
     </row>
     <row r="30" spans="2:5">
       <c r="B30" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
@@ -3753,7 +4322,7 @@
     </row>
     <row r="31" spans="2:5">
       <c r="B31" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
@@ -3761,7 +4330,7 @@
     </row>
     <row r="32" spans="2:5">
       <c r="B32" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
@@ -3769,7 +4338,7 @@
     </row>
     <row r="33" spans="2:5">
       <c r="B33" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
@@ -3777,7 +4346,7 @@
     </row>
     <row r="34" spans="2:5">
       <c r="B34" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
@@ -3785,7 +4354,7 @@
     </row>
     <row r="35" spans="2:5">
       <c r="B35" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
@@ -3793,7 +4362,7 @@
     </row>
     <row r="36" spans="2:5">
       <c r="B36" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
@@ -3801,7 +4370,7 @@
     </row>
     <row r="37" spans="2:5">
       <c r="B37" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
@@ -3809,7 +4378,7 @@
     </row>
     <row r="38" spans="2:5">
       <c r="B38" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
@@ -3817,7 +4386,7 @@
     </row>
     <row r="39" spans="2:5">
       <c r="B39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C39" s="22"/>
       <c r="D39" s="22"/>
@@ -3825,7 +4394,7 @@
     </row>
     <row r="40" spans="2:5">
       <c r="B40" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C40" s="22"/>
       <c r="D40" s="22"/>
@@ -3833,7 +4402,7 @@
     </row>
     <row r="41" spans="2:5">
       <c r="B41" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
@@ -3846,7 +4415,7 @@
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C43" s="22">
         <v>14</v>
@@ -3855,12 +4424,12 @@
         <v>1</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="44" spans="2:5">
       <c r="B44" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C44" s="22"/>
       <c r="D44" s="22"/>
@@ -3873,7 +4442,7 @@
     </row>
     <row r="46" spans="2:5">
       <c r="B46" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
@@ -3881,7 +4450,7 @@
     </row>
     <row r="47" spans="2:5">
       <c r="B47" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C47" s="22"/>
       <c r="D47" s="22"/>
@@ -3889,7 +4458,7 @@
     </row>
     <row r="48" spans="2:5">
       <c r="B48" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C48" s="22"/>
       <c r="D48" s="22"/>
@@ -3897,7 +4466,7 @@
     </row>
     <row r="49" spans="2:5">
       <c r="B49" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
@@ -3905,7 +4474,7 @@
     </row>
     <row r="50" spans="2:5">
       <c r="B50" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C50" s="22"/>
       <c r="D50" s="22"/>
@@ -3913,7 +4482,7 @@
     </row>
     <row r="51" spans="2:5">
       <c r="B51" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C51" s="22"/>
       <c r="D51" s="22"/>
@@ -3921,7 +4490,7 @@
     </row>
     <row r="52" spans="2:5">
       <c r="B52" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C52" s="22"/>
       <c r="D52" s="22"/>
@@ -3929,7 +4498,7 @@
     </row>
     <row r="53" spans="2:5">
       <c r="B53" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C53" s="22"/>
       <c r="D53" s="22"/>
@@ -3942,7 +4511,7 @@
     </row>
     <row r="55" spans="2:5">
       <c r="B55" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C55" s="22">
         <v>15</v>
@@ -3951,12 +4520,12 @@
         <v>1</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="56" spans="2:5">
       <c r="B56" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C56" s="22"/>
       <c r="D56" s="22"/>
@@ -3969,7 +4538,7 @@
     </row>
     <row r="58" spans="2:5">
       <c r="B58" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C58" s="22"/>
       <c r="D58" s="22"/>
@@ -3977,7 +4546,7 @@
     </row>
     <row r="59" spans="2:5">
       <c r="B59" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C59" s="22"/>
       <c r="D59" s="22"/>
@@ -3985,7 +4554,7 @@
     </row>
     <row r="60" spans="2:5">
       <c r="B60" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C60" s="22"/>
       <c r="D60" s="22"/>
@@ -3998,7 +4567,7 @@
     </row>
     <row r="62" spans="2:5">
       <c r="B62" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C62" s="22">
         <v>16</v>
@@ -4007,12 +4576,12 @@
         <v>1</v>
       </c>
       <c r="E62" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="63" spans="2:5">
       <c r="B63" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C63" s="22"/>
       <c r="D63" s="22"/>
@@ -4020,7 +4589,7 @@
     </row>
     <row r="64" spans="2:5">
       <c r="B64" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C64" s="22"/>
       <c r="D64" s="22"/>
@@ -4033,7 +4602,7 @@
     </row>
     <row r="66" spans="2:5">
       <c r="B66" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C66" s="22">
         <v>17</v>
@@ -4042,12 +4611,12 @@
         <v>2</v>
       </c>
       <c r="E66" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="67" spans="2:5">
       <c r="B67" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C67" s="22"/>
       <c r="D67" s="22"/>
@@ -4060,7 +4629,7 @@
     </row>
     <row r="69" spans="2:5">
       <c r="B69" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C69" s="22"/>
       <c r="D69" s="22"/>
@@ -4068,7 +4637,7 @@
     </row>
     <row r="70" spans="2:5">
       <c r="B70" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C70" s="22"/>
       <c r="D70" s="22"/>
@@ -4076,7 +4645,7 @@
     </row>
     <row r="71" spans="2:5">
       <c r="B71" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C71" s="22"/>
       <c r="D71" s="22"/>
@@ -4084,7 +4653,7 @@
     </row>
     <row r="72" spans="2:5">
       <c r="B72" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C72" s="22"/>
       <c r="D72" s="22"/>
@@ -4092,7 +4661,7 @@
     </row>
     <row r="73" spans="2:5">
       <c r="B73" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C73" s="22"/>
       <c r="D73" s="22"/>
@@ -4100,7 +4669,7 @@
     </row>
     <row r="74" spans="2:5">
       <c r="B74" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C74" s="22"/>
       <c r="D74" s="22"/>
@@ -4108,7 +4677,7 @@
     </row>
     <row r="75" spans="2:5">
       <c r="B75" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C75" s="22"/>
       <c r="D75" s="22"/>
@@ -4116,7 +4685,7 @@
     </row>
     <row r="76" spans="2:5">
       <c r="B76" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C76" s="22"/>
       <c r="D76" s="22"/>
@@ -4124,7 +4693,7 @@
     </row>
     <row r="77" spans="2:5">
       <c r="B77" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C77" s="22"/>
       <c r="D77" s="22"/>
@@ -4132,7 +4701,7 @@
     </row>
     <row r="78" spans="2:5">
       <c r="B78" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C78" s="22"/>
       <c r="D78" s="22"/>
@@ -4140,7 +4709,7 @@
     </row>
     <row r="79" spans="2:5">
       <c r="B79" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C79" s="22"/>
       <c r="D79" s="22"/>
@@ -4148,7 +4717,7 @@
     </row>
     <row r="80" spans="2:5">
       <c r="B80" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C80" s="22"/>
       <c r="D80" s="22"/>
@@ -4156,7 +4725,7 @@
     </row>
     <row r="81" spans="2:5">
       <c r="B81" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C81" s="22"/>
       <c r="D81" s="22"/>
@@ -4164,7 +4733,7 @@
     </row>
     <row r="82" spans="2:5">
       <c r="B82" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C82" s="22"/>
       <c r="D82" s="22"/>
@@ -4172,7 +4741,7 @@
     </row>
     <row r="83" spans="2:5">
       <c r="B83" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C83" s="22"/>
       <c r="D83" s="22"/>
@@ -4185,7 +4754,7 @@
     </row>
     <row r="85" spans="2:5">
       <c r="B85" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C85">
         <v>19</v>
@@ -4194,7 +4763,7 @@
         <v>8</v>
       </c>
       <c r="E85" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
